--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/05 plantilla_sprint_backlog_actividades_horas.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/05 plantilla_sprint_backlog_actividades_horas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="113">
   <si>
     <t xml:space="preserve">Resultado de la actividad Sprint Planning </t>
   </si>
@@ -45,149 +45,323 @@
     <t>T1.1</t>
   </si>
   <si>
-    <t>Configurar Supabase Auth y definición de roles (residente/bombero)</t>
+    <t>Diseñar base de datos</t>
   </si>
   <si>
     <t>T1.2</t>
   </si>
   <si>
-    <t>Implementar pantallas de login y registro</t>
+    <t>Crear tablas y BD</t>
   </si>
   <si>
     <t>T1.3</t>
   </si>
   <si>
-    <t>Validaciones de credenciales y recuperación de contraseña</t>
+    <t>Registrar residencia</t>
   </si>
   <si>
     <t>HU-1</t>
   </si>
   <si>
-    <t>T2.1</t>
-  </si>
-  <si>
-    <t>Desarrollar pantalla de registro de vivienda</t>
-  </si>
-  <si>
-    <t>T2.2</t>
-  </si>
-  <si>
-    <t>Implementar geolocalización básica y guardado en BD Supabase</t>
-  </si>
-  <si>
-    <t>T2.3</t>
-  </si>
-  <si>
-    <t>Validar dirección y coordenadas en tiempo real</t>
+    <t>T1.4</t>
+  </si>
+  <si>
+    <t>Editar residencia</t>
+  </si>
+  <si>
+    <t>T1.5</t>
+  </si>
+  <si>
+    <t>Eliminar residencia</t>
+  </si>
+  <si>
+    <t>T1.6</t>
+  </si>
+  <si>
+    <t>Validar campos de registro de residencia</t>
   </si>
   <si>
     <t>HU-2</t>
   </si>
   <si>
-    <t>T3.1</t>
-  </si>
-  <si>
-    <t>Formulario dinámico para registro de integrantes</t>
-  </si>
-  <si>
-    <t>T3.2</t>
-  </si>
-  <si>
-    <t>Validaciones de datos y condiciones médicas</t>
-  </si>
-  <si>
-    <t>T3.3</t>
-  </si>
-  <si>
-    <t>CRUD de integrantes (crear, editar, eliminar)</t>
+    <t>T1.7</t>
+  </si>
+  <si>
+    <t>Editar grupo familiar</t>
+  </si>
+  <si>
+    <t>T1.8</t>
+  </si>
+  <si>
+    <t>Registrar integrante</t>
+  </si>
+  <si>
+    <t>T1.9</t>
+  </si>
+  <si>
+    <t>Editar integrante</t>
   </si>
   <si>
     <t>HU-3</t>
   </si>
   <si>
-    <t>T4.1</t>
-  </si>
-  <si>
-    <t>Registro de mascotas (nombre, especie, raza, peso)</t>
-  </si>
-  <si>
-    <t>T4.2</t>
-  </si>
-  <si>
-    <t>Edición o eliminación de mascotas</t>
+    <t>T1.10</t>
+  </si>
+  <si>
+    <t>Eliminar integrante</t>
+  </si>
+  <si>
+    <t>T1.11</t>
+  </si>
+  <si>
+    <t>Validar campos de integrantes</t>
   </si>
   <si>
     <t>HU-4</t>
   </si>
   <si>
-    <t>T5.1</t>
-  </si>
-  <si>
-    <t>Consulta de vivienda por dirección o coordenadas</t>
-  </si>
-  <si>
-    <t>T5.2</t>
-  </si>
-  <si>
-    <t>Mostrar resultados con residentes y mascotas</t>
+    <t>T1.12</t>
+  </si>
+  <si>
+    <t>Registrar mascotas</t>
+  </si>
+  <si>
+    <t>T1.13</t>
+  </si>
+  <si>
+    <t>Editar mascotas</t>
   </si>
   <si>
     <t>HU-5</t>
   </si>
   <si>
-    <t>T6.1</t>
-  </si>
-  <si>
-    <t>Diseñar modelo y API para grifos</t>
-  </si>
-  <si>
-    <t>T6.2</t>
-  </si>
-  <si>
-    <t>Implementar registro y edición de grifos</t>
-  </si>
-  <si>
-    <t>T6.3</t>
-  </si>
-  <si>
-    <t>Mostrar grifos en mapa con íconos diferenciados por estado</t>
+    <t>T1.14</t>
+  </si>
+  <si>
+    <t>Eliminar mascotas</t>
+  </si>
+  <si>
+    <t>T1.15</t>
+  </si>
+  <si>
+    <t>Validar campos de mascotas</t>
+  </si>
+  <si>
+    <t>T1.16</t>
+  </si>
+  <si>
+    <t>Mostrar resumen de la vivienda</t>
+  </si>
+  <si>
+    <t>T1.17</t>
+  </si>
+  <si>
+    <t>Asociar vivienda a residente</t>
   </si>
   <si>
     <t>HU-7</t>
   </si>
   <si>
-    <t>T7.1</t>
-  </si>
-  <si>
-    <t>Estructura local para datos sin conexión</t>
-  </si>
-  <si>
-    <t>T7.2</t>
-  </si>
-  <si>
-    <t>Guardar datos localmente</t>
+    <t>T1.18</t>
+  </si>
+  <si>
+    <t>Consultar información de vivienda</t>
   </si>
   <si>
     <t>HU-8</t>
   </si>
   <si>
-    <t>T8.1</t>
-  </si>
-  <si>
-    <t>Implementar función de asignación de comuna por coordenadas</t>
-  </si>
-  <si>
-    <t>T8.2</t>
-  </si>
-  <si>
-    <t>Validar coordenadas (lat/lon) y mostrar comuna asociada</t>
+    <t>T1.19</t>
+  </si>
+  <si>
+    <t>Consultar residentes</t>
+  </si>
+  <si>
+    <t>HU-9</t>
+  </si>
+  <si>
+    <t>T1.20</t>
+  </si>
+  <si>
+    <t>Consultar mascotas</t>
+  </si>
+  <si>
+    <t>HU-10</t>
+  </si>
+  <si>
+    <t>T1.21</t>
+  </si>
+  <si>
+    <t>Visualizar grifos cercanos</t>
+  </si>
+  <si>
+    <t>HU-11</t>
+  </si>
+  <si>
+    <t>T1.22</t>
+  </si>
+  <si>
+    <t>Mostrar estado del grifo</t>
+  </si>
+  <si>
+    <t>HU-12</t>
+  </si>
+  <si>
+    <t>T1.23</t>
+  </si>
+  <si>
+    <t>Actualizar estado del grifo</t>
+  </si>
+  <si>
+    <t>HU-13</t>
+  </si>
+  <si>
+    <t>T1.24</t>
+  </si>
+  <si>
+    <t>Visualizar mapa de grifos</t>
+  </si>
+  <si>
+    <t>HU-14</t>
+  </si>
+  <si>
+    <t>T1.25</t>
+  </si>
+  <si>
+    <t>Crear usuario</t>
+  </si>
+  <si>
+    <t>HU-15</t>
+  </si>
+  <si>
+    <t>T1.26</t>
+  </si>
+  <si>
+    <t>Iniciar sesión</t>
+  </si>
+  <si>
+    <t>HU-16</t>
+  </si>
+  <si>
+    <t>T1.27</t>
+  </si>
+  <si>
+    <t>Validar datos del registro</t>
+  </si>
+  <si>
+    <t>HU-17</t>
+  </si>
+  <si>
+    <t>T1.28</t>
+  </si>
+  <si>
+    <t>Manejar autenticación con Supabase Auth</t>
+  </si>
+  <si>
+    <t>HU-18</t>
+  </si>
+  <si>
+    <t>T1.29</t>
+  </si>
+  <si>
+    <t>Manejo de sesiones activas</t>
+  </si>
+  <si>
+    <t>HU-19</t>
+  </si>
+  <si>
+    <t>T1.30</t>
+  </si>
+  <si>
+    <t>Editar datos de integrantes/mascotas</t>
+  </si>
+  <si>
+    <t>HU-20</t>
+  </si>
+  <si>
+    <t>T1.31</t>
+  </si>
+  <si>
+    <t>Editar datos de bomberos</t>
+  </si>
+  <si>
+    <t>HU-21</t>
+  </si>
+  <si>
+    <t>T1.32</t>
+  </si>
+  <si>
+    <t>Editar datos de Grifos</t>
+  </si>
+  <si>
+    <t>HU-22</t>
+  </si>
+  <si>
+    <t>T1.33</t>
+  </si>
+  <si>
+    <t>Asignación de roles (Residente/Bombero/Admin)</t>
+  </si>
+  <si>
+    <t>HU-23</t>
+  </si>
+  <si>
+    <t>T1.34</t>
+  </si>
+  <si>
+    <t>Validar permisos según rol</t>
+  </si>
+  <si>
+    <t>HU-24</t>
+  </si>
+  <si>
+    <t>T1.35</t>
+  </si>
+  <si>
+    <t>Recuperar contraseña</t>
+  </si>
+  <si>
+    <t>HU-25</t>
+  </si>
+  <si>
+    <t>T1.36</t>
+  </si>
+  <si>
+    <t>Cerrar sesión</t>
+  </si>
+  <si>
+    <t>HU-26</t>
+  </si>
+  <si>
+    <t>T1.37</t>
+  </si>
+  <si>
+    <t>Obtener ubicación por Google Maps</t>
+  </si>
+  <si>
+    <t>HU-27</t>
+  </si>
+  <si>
+    <t>T1.38</t>
+  </si>
+  <si>
+    <t>Asignar la comuna</t>
+  </si>
+  <si>
+    <t>HU-28</t>
+  </si>
+  <si>
+    <t>T1.39</t>
+  </si>
+  <si>
+    <t>Permitir colocar coordenadas para la ubicación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -217,6 +391,15 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -236,7 +419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border/>
     <border>
       <left style="thin">
@@ -252,11 +435,67 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -272,11 +511,38 @@
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,7 +764,12 @@
     <col customWidth="1" min="2" max="2" width="10.29"/>
     <col customWidth="1" min="3" max="3" width="68.71"/>
     <col customWidth="1" min="4" max="4" width="20.14"/>
-    <col customWidth="1" min="5" max="26" width="10.71"/>
+    <col customWidth="1" min="5" max="6" width="10.71"/>
+    <col customWidth="1" min="7" max="7" width="13.29"/>
+    <col customWidth="1" min="8" max="8" width="11.14"/>
+    <col customWidth="1" min="9" max="9" width="64.14"/>
+    <col customWidth="1" min="10" max="10" width="20.86"/>
+    <col customWidth="1" min="11" max="26" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -523,11 +794,11 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3">
-        <f>SUM(D7:D26)</f>
-        <v>314</v>
-      </c>
-    </row>
-    <row r="6" ht="41.25" customHeight="1">
+        <f>SUM(D7:D45)</f>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -541,306 +812,617 @@
         <v>6</v>
       </c>
       <c r="E6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7">
-        <v>16.0</v>
-      </c>
+      <c r="D7" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7">
-        <v>32.0</v>
-      </c>
+      <c r="D8" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="9">
         <v>10.0</v>
       </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="7">
-        <v>40.0</v>
-      </c>
+      <c r="D10" s="14">
+        <v>12.0</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="J10" s="12"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="7">
-        <v>24.0</v>
-      </c>
+      <c r="D11" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="J11" s="12"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="9">
         <v>12.0</v>
       </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="9">
         <v>12.0</v>
       </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="9">
         <v>8.0</v>
       </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="9">
         <v>12.0</v>
       </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="7">
-        <v>16.0</v>
-      </c>
+      <c r="D16" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="J16" s="12"/>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="14">
+        <v>10.0</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="14">
+        <v>12.0</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="14">
+        <v>6.0</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="9">
+        <v>12.0</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="14">
         <v>8.0</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="7">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="7">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="14">
         <v>8.0</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="7">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="7">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="7">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="7">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="7">
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="14">
+        <v>6.0</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="9">
         <v>12.0</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="7">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="14">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="14">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="9">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="9">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="14">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="14">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="9">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="9">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="14">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="14">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="14">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="14">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="14">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="9">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="14">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="14">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="9">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="16">
+        <v>12.0</v>
+      </c>
+    </row>
     <row r="46" ht="15.75" customHeight="1"/>
     <row r="47" ht="15.75" customHeight="1"/>
     <row r="48" ht="15.75" customHeight="1"/>
